--- a/biology/Médecine/Cervarix/Cervarix.xlsx
+++ b/biology/Médecine/Cervarix/Cervarix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article ne traite uniquement d'un vaccin qui n'est plus recommandé en France par la Haute Autorité de la Santé pour avoir des informations récentes voir Vaccin contre les infections à papillomavirus humain 
-Le Cervarix (GlaxoSmithKline 2007) est un vaccin contre les génotypes 16 et 18 du papillomavirus humain (HPV) responsables de 70 % des cas de cancer du col de l'utérus[1].
+Le Cervarix (GlaxoSmithKline 2007) est un vaccin contre les génotypes 16 et 18 du papillomavirus humain (HPV) responsables de 70 % des cas de cancer du col de l'utérus.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une dose (0,5 ml) contient[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une dose (0,5 ml) contient :
 </t>
         </is>
       </c>
@@ -569,11 +585,13 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hypersensibilité aux substances actives ou à l'un des excipients contre-indique l'utilisation du Cervarix[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypersensibilité aux substances actives ou à l'un des excipients contre-indique l'utilisation du Cervarix.
 Si la personne à vacciner présente une maladie fébrile aiguë sévère, l'injection doit être reportée.
-Une infection mineure ne contre-indique pas la vaccination[2].
+Une infection mineure ne contre-indique pas la vaccination.
 </t>
         </is>
       </c>
